--- a/openpyxl module/data.xlsx
+++ b/openpyxl module/data.xlsx
@@ -389,7 +389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -410,7 +410,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Father Name</t>
+          <t>Mother Name</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -461,8 +461,6 @@
         </is>
       </c>
     </row>
-    <row r="4"/>
-    <row r="5"/>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.39375" footer="0.39375"/>
   <pageSetup paperSize="1" fitToHeight="1" fitToWidth="0" pageOrder="overThenDown"/>
